--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgfb1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H2">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I2">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J2">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0057055</v>
+        <v>0.5414285</v>
       </c>
       <c r="N2">
-        <v>0.011411</v>
+        <v>1.082857</v>
       </c>
       <c r="O2">
-        <v>0.000334938228146736</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P2">
-        <v>0.000321009433024368</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q2">
-        <v>0.26831998561925</v>
+        <v>35.46300068650325</v>
       </c>
       <c r="R2">
-        <v>1.073279942477</v>
+        <v>141.852002746013</v>
       </c>
       <c r="S2">
-        <v>3.921778415690457E-05</v>
+        <v>0.003165412929028437</v>
       </c>
       <c r="T2">
-        <v>2.636667523477824E-05</v>
+        <v>0.002194235381653974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H3">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I3">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J3">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.947929</v>
       </c>
       <c r="O3">
-        <v>0.07725366424848043</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P3">
-        <v>0.1110614713794111</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q3">
-        <v>61.88813440281717</v>
+        <v>86.19507398007683</v>
       </c>
       <c r="R3">
-        <v>371.328806416903</v>
+        <v>517.170443880461</v>
       </c>
       <c r="S3">
-        <v>0.009045600875692117</v>
+        <v>0.007693737030519765</v>
       </c>
       <c r="T3">
-        <v>0.009122229584870984</v>
+        <v>0.007999842542512809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H4">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I4">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J4">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003021333333333334</v>
+        <v>23.5157765</v>
       </c>
       <c r="N4">
-        <v>0.009064000000000001</v>
+        <v>47.031553</v>
       </c>
       <c r="O4">
-        <v>0.000177365705601146</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P4">
-        <v>0.000254984620185161</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q4">
-        <v>0.1420881809746667</v>
+        <v>1540.258775005669</v>
       </c>
       <c r="R4">
-        <v>0.8525290858480002</v>
+        <v>6161.035100022677</v>
       </c>
       <c r="S4">
-        <v>2.076768005130624E-05</v>
+        <v>0.1374828679488485</v>
       </c>
       <c r="T4">
-        <v>2.094361093050828E-05</v>
+        <v>0.09530187055791682</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,113 +729,113 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.02830350000001</v>
+        <v>65.4989545</v>
       </c>
       <c r="H5">
-        <v>94.05660700000001</v>
+        <v>130.997909</v>
       </c>
       <c r="I5">
-        <v>0.1170896029811303</v>
+        <v>0.148361342241837</v>
       </c>
       <c r="J5">
-        <v>0.0821367614850643</v>
+        <v>0.1055160416597095</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>15.5505055</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N5">
-        <v>31.101011</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O5">
-        <v>0.9128838417239634</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P5">
-        <v>0.8749205071943416</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q5">
-        <v>731.3138922324193</v>
+        <v>0.2164958776073333</v>
       </c>
       <c r="R5">
-        <v>2925.255568929677</v>
+        <v>1.298975265644</v>
       </c>
       <c r="S5">
-        <v>0.1068892065953479</v>
+        <v>1.932433344030097E-05</v>
       </c>
       <c r="T5">
-        <v>0.07186313701781312</v>
+        <v>2.009317762592919E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>12.33126566666667</v>
+      </c>
+      <c r="H6">
+        <v>36.993797</v>
+      </c>
+      <c r="I6">
+        <v>0.02793148592696006</v>
+      </c>
+      <c r="J6">
+        <v>0.02979772009492791</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>47.02830350000001</v>
-      </c>
-      <c r="H6">
-        <v>94.05660700000001</v>
-      </c>
-      <c r="I6">
-        <v>0.1170896029811303</v>
-      </c>
-      <c r="J6">
-        <v>0.0821367614850643</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1436843333333333</v>
+        <v>0.5414285</v>
       </c>
       <c r="N6">
-        <v>0.431053</v>
+        <v>1.082857</v>
       </c>
       <c r="O6">
-        <v>0.008434909476664915</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P6">
-        <v>0.01212620095815028</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q6">
-        <v>6.757230436195168</v>
+        <v>6.676498673004833</v>
       </c>
       <c r="R6">
-        <v>40.54338261717101</v>
+        <v>40.058992038029</v>
       </c>
       <c r="S6">
-        <v>0.0009876402018044689</v>
+        <v>0.0005959415393806193</v>
       </c>
       <c r="T6">
-        <v>0.000996006875819548</v>
+        <v>0.0006196518623753349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.02830350000001</v>
+        <v>12.33126566666667</v>
       </c>
       <c r="H7">
-        <v>94.05660700000001</v>
+        <v>36.993797</v>
       </c>
       <c r="I7">
-        <v>0.1170896029811303</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J7">
-        <v>0.0821367614850643</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.01559133333333333</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N7">
-        <v>0.046774</v>
+        <v>3.947929</v>
       </c>
       <c r="O7">
-        <v>0.0009152806171434249</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P7">
-        <v>0.001315826414887546</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q7">
-        <v>0.7332339559696668</v>
+        <v>16.22765377737922</v>
       </c>
       <c r="R7">
-        <v>4.399403735818001</v>
+        <v>146.048883996413</v>
       </c>
       <c r="S7">
-        <v>0.0001071698440776476</v>
+        <v>0.00144847373545192</v>
       </c>
       <c r="T7">
-        <v>0.0001080777203953656</v>
+        <v>0.002259154770551969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>36.993797</v>
       </c>
       <c r="I8">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J8">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0057055</v>
+        <v>23.5157765</v>
       </c>
       <c r="N8">
-        <v>0.011411</v>
+        <v>47.031553</v>
       </c>
       <c r="O8">
-        <v>0.000334938228146736</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P8">
-        <v>0.000321009433024368</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q8">
-        <v>0.07035603626116667</v>
+        <v>289.9792873794569</v>
       </c>
       <c r="R8">
-        <v>0.422136217567</v>
+        <v>1739.875724276741</v>
       </c>
       <c r="S8">
-        <v>1.028327367362468E-05</v>
+        <v>0.02588343252551462</v>
       </c>
       <c r="T8">
-        <v>1.037038717758885E-05</v>
+        <v>0.02691323915055661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>36.993797</v>
       </c>
       <c r="I9">
-        <v>0.03070200057641551</v>
+        <v>0.02793148592696006</v>
       </c>
       <c r="J9">
-        <v>0.03230555276798244</v>
+        <v>0.02979772009492791</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.315976333333333</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N9">
-        <v>3.947929</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O9">
-        <v>0.07725366424848043</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P9">
-        <v>0.1110614713794111</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q9">
-        <v>16.22765377737922</v>
+        <v>0.04075894345022222</v>
       </c>
       <c r="R9">
-        <v>146.048883996413</v>
+        <v>0.366830491052</v>
       </c>
       <c r="S9">
-        <v>0.002371842044287056</v>
+        <v>3.638126612900393E-06</v>
       </c>
       <c r="T9">
-        <v>0.003587902224137337</v>
+        <v>5.674311443998443E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,61 +1039,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H10">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I10">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J10">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.003021333333333334</v>
+        <v>0.5414285</v>
       </c>
       <c r="N10">
-        <v>0.009064000000000001</v>
+        <v>1.082857</v>
       </c>
       <c r="O10">
-        <v>0.000177365705601146</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P10">
-        <v>0.000254984620185161</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q10">
-        <v>0.03725686400088889</v>
+        <v>67.18144198177366</v>
       </c>
       <c r="R10">
-        <v>0.3353117760080001</v>
+        <v>403.088651890642</v>
       </c>
       <c r="S10">
-        <v>5.445481995602728E-06</v>
+        <v>0.005996588019152442</v>
       </c>
       <c r="T10">
-        <v>8.237419102415679E-06</v>
+        <v>0.006235170211204568</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H11">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I11">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J11">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.5505055</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N11">
-        <v>31.101011</v>
+        <v>3.947929</v>
       </c>
       <c r="O11">
-        <v>0.9128838417239634</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P11">
-        <v>0.8749205071943416</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q11">
-        <v>191.7574145714612</v>
+        <v>163.2887586952305</v>
       </c>
       <c r="R11">
-        <v>1150.544487428767</v>
+        <v>1469.598828257074</v>
       </c>
       <c r="S11">
-        <v>0.02802736023480953</v>
+        <v>0.01457508777974345</v>
       </c>
       <c r="T11">
-        <v>0.02826479061295676</v>
+        <v>0.02273246541025328</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H12">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I12">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J12">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1436843333333333</v>
+        <v>23.5157765</v>
       </c>
       <c r="N12">
-        <v>0.431053</v>
+        <v>47.031553</v>
       </c>
       <c r="O12">
-        <v>0.008434909476664915</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P12">
-        <v>0.01212620095815028</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q12">
-        <v>1.771809686471222</v>
+        <v>2917.88070740847</v>
       </c>
       <c r="R12">
-        <v>15.946287178241</v>
+        <v>17507.28424445082</v>
       </c>
       <c r="S12">
-        <v>0.0002589685956145788</v>
+        <v>0.2604488378815791</v>
       </c>
       <c r="T12">
-        <v>0.0003917436249286832</v>
+        <v>0.2708111396539791</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.33126566666667</v>
+        <v>124.0818353333333</v>
       </c>
       <c r="H13">
-        <v>36.993797</v>
+        <v>372.245506</v>
       </c>
       <c r="I13">
-        <v>0.03070200057641551</v>
+        <v>0.2810571218794634</v>
       </c>
       <c r="J13">
-        <v>0.03230555276798244</v>
+        <v>0.2998358723324023</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,33 +1243,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.01559133333333333</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N13">
-        <v>0.046774</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O13">
-        <v>0.0009152806171434249</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P13">
-        <v>0.001315826414887546</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q13">
-        <v>0.1922608734308889</v>
+        <v>0.4101318263884444</v>
       </c>
       <c r="R13">
-        <v>1.730347860878</v>
+        <v>3.691186437496</v>
       </c>
       <c r="S13">
-        <v>2.810094603511937E-05</v>
+        <v>3.660819898836481E-05</v>
       </c>
       <c r="T13">
-        <v>4.250849967965478E-05</v>
+        <v>5.709705696532829E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H14">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I14">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J14">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0057055</v>
+        <v>0.5414285</v>
       </c>
       <c r="N14">
-        <v>0.011411</v>
+        <v>1.082857</v>
       </c>
       <c r="O14">
-        <v>0.000334938228146736</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P14">
-        <v>0.000321009433024368</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q14">
-        <v>0.7362914125586666</v>
+        <v>9.448656629189498</v>
       </c>
       <c r="R14">
-        <v>4.417748475352</v>
+        <v>37.79462651675799</v>
       </c>
       <c r="S14">
-        <v>0.0001076167234716658</v>
+        <v>0.0008433832241209534</v>
       </c>
       <c r="T14">
-        <v>0.0001085283854738942</v>
+        <v>0.0005846255613884789</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H15">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I15">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J15">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>3.947929</v>
       </c>
       <c r="O15">
-        <v>0.07725366424848043</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P15">
-        <v>0.1110614713794111</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q15">
-        <v>169.8259702679475</v>
+        <v>22.96555963678767</v>
       </c>
       <c r="R15">
-        <v>1528.433732411528</v>
+        <v>137.793357820726</v>
       </c>
       <c r="S15">
-        <v>0.02482184929622119</v>
+        <v>0.002049896455161738</v>
       </c>
       <c r="T15">
-        <v>0.0375481868666695</v>
+        <v>0.002131454299087374</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H16">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I16">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J16">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.003021333333333334</v>
+        <v>23.5157765</v>
       </c>
       <c r="N16">
-        <v>0.009064000000000001</v>
+        <v>47.031553</v>
       </c>
       <c r="O16">
-        <v>0.000177365705601146</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P16">
-        <v>0.000254984620185161</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q16">
-        <v>0.3899012860942223</v>
+        <v>410.3819756759455</v>
       </c>
       <c r="R16">
-        <v>3.509111574848001</v>
+        <v>1641.527902703782</v>
       </c>
       <c r="S16">
-        <v>5.69881682322425E-05</v>
+        <v>0.03663052721140049</v>
       </c>
       <c r="T16">
-        <v>8.620640486682826E-05</v>
+        <v>0.02539194748299822</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.0494106666667</v>
+        <v>17.451347</v>
       </c>
       <c r="H17">
-        <v>387.148232</v>
+        <v>34.902694</v>
       </c>
       <c r="I17">
-        <v>0.3213031969122349</v>
+        <v>0.03952895560871975</v>
       </c>
       <c r="J17">
-        <v>0.3380847237148192</v>
+        <v>0.0281133809100731</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>15.5505055</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N17">
-        <v>31.101011</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O17">
-        <v>0.9128838417239634</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P17">
-        <v>0.8749205071943416</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q17">
-        <v>2006.783570343759</v>
+        <v>0.05768251895066666</v>
       </c>
       <c r="R17">
-        <v>12040.70142206255</v>
+        <v>0.3460951137039999</v>
       </c>
       <c r="S17">
-        <v>0.2933124967554321</v>
+        <v>5.148718036566462E-06</v>
       </c>
       <c r="T17">
-        <v>0.2957972579472285</v>
+        <v>5.35356659903215E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.0494106666667</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H18">
-        <v>387.148232</v>
+        <v>415.312492</v>
       </c>
       <c r="I18">
-        <v>0.3213031969122349</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J18">
-        <v>0.3380847237148192</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1436843333333333</v>
+        <v>0.5414285</v>
       </c>
       <c r="N18">
-        <v>0.431053</v>
+        <v>1.082857</v>
       </c>
       <c r="O18">
-        <v>0.008434909476664915</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P18">
-        <v>0.01212620095815028</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q18">
-        <v>18.54237853869956</v>
+        <v>74.95400652494067</v>
       </c>
       <c r="R18">
-        <v>166.881406848296</v>
+        <v>449.724039149644</v>
       </c>
       <c r="S18">
-        <v>0.002710163380517743</v>
+        <v>0.006690363949569198</v>
       </c>
       <c r="T18">
-        <v>0.004099683300646615</v>
+        <v>0.006956548935367228</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,113 +1597,113 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.0494106666667</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H19">
-        <v>387.148232</v>
+        <v>415.312492</v>
       </c>
       <c r="I19">
-        <v>0.3213031969122349</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J19">
-        <v>0.3380847237148192</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.01559133333333333</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N19">
-        <v>0.046774</v>
+        <v>3.947929</v>
       </c>
       <c r="O19">
-        <v>0.0009152806171434249</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P19">
-        <v>0.001315826414887546</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q19">
-        <v>2.012052378174222</v>
+        <v>182.1804701365631</v>
       </c>
       <c r="R19">
-        <v>18.108471403568</v>
+        <v>1639.624231229068</v>
       </c>
       <c r="S19">
-        <v>0.0002940825883599857</v>
+        <v>0.01626135421208819</v>
       </c>
       <c r="T19">
-        <v>0.0004448608099339171</v>
+        <v>0.02536250057196417</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>138.4374973333333</v>
+      </c>
+      <c r="H20">
+        <v>415.312492</v>
+      </c>
+      <c r="I20">
+        <v>0.3135740574450553</v>
+      </c>
+      <c r="J20">
+        <v>0.3345254175596786</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>12.780919</v>
-      </c>
-      <c r="H20">
-        <v>25.561838</v>
-      </c>
-      <c r="I20">
-        <v>0.03182153341857176</v>
-      </c>
-      <c r="J20">
-        <v>0.02232237221704003</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0057055</v>
+        <v>23.5157765</v>
       </c>
       <c r="N20">
-        <v>0.011411</v>
+        <v>47.031553</v>
       </c>
       <c r="O20">
-        <v>0.000334938228146736</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P20">
-        <v>0.000321009433024368</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q20">
-        <v>0.0729215333545</v>
+        <v>3255.465246510013</v>
       </c>
       <c r="R20">
-        <v>0.291686133418</v>
+        <v>19532.79147906008</v>
       </c>
       <c r="S20">
-        <v>1.065824802012857E-05</v>
+        <v>0.2905814956946791</v>
       </c>
       <c r="T20">
-        <v>7.165692049150924E-06</v>
+        <v>0.302142665144906</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.780919</v>
+        <v>138.4374973333333</v>
       </c>
       <c r="H21">
-        <v>25.561838</v>
+        <v>415.312492</v>
       </c>
       <c r="I21">
-        <v>0.03182153341857176</v>
+        <v>0.3135740574450553</v>
       </c>
       <c r="J21">
-        <v>0.02232237221704003</v>
+        <v>0.3345254175596786</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.315976333333333</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N21">
-        <v>3.947929</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O21">
-        <v>0.07725366424848043</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P21">
-        <v>0.1110614713794111</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q21">
-        <v>16.81938692225033</v>
+        <v>0.4575820745191111</v>
       </c>
       <c r="R21">
-        <v>100.916321533502</v>
+        <v>4.118238670672</v>
       </c>
       <c r="S21">
-        <v>0.002458330058590143</v>
+        <v>4.084358871881093E-05</v>
       </c>
       <c r="T21">
-        <v>0.002479155503103353</v>
+        <v>6.370290744124242E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>83.68172299999999</v>
+      </c>
+      <c r="H22">
+        <v>251.045169</v>
+      </c>
+      <c r="I22">
+        <v>0.1895470368979645</v>
+      </c>
+      <c r="J22">
+        <v>0.2022115674432087</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>12.780919</v>
-      </c>
-      <c r="H22">
-        <v>25.561838</v>
-      </c>
-      <c r="I22">
-        <v>0.03182153341857176</v>
-      </c>
-      <c r="J22">
-        <v>0.02232237221704003</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.003021333333333334</v>
+        <v>0.5414285</v>
       </c>
       <c r="N22">
-        <v>0.009064000000000001</v>
+        <v>1.082857</v>
       </c>
       <c r="O22">
-        <v>0.000177365705601146</v>
+        <v>0.02133583372323933</v>
       </c>
       <c r="P22">
-        <v>0.000254984620185161</v>
+        <v>0.02079527763873487</v>
       </c>
       <c r="Q22">
-        <v>0.03861541660533334</v>
+        <v>45.30766976130549</v>
       </c>
       <c r="R22">
-        <v>0.231692499632</v>
+        <v>271.846018567833</v>
       </c>
       <c r="S22">
-        <v>5.644048728095429E-06</v>
+        <v>0.004044144061987682</v>
       </c>
       <c r="T22">
-        <v>5.691861601393741E-06</v>
+        <v>0.004205045686745286</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.780919</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H23">
-        <v>25.561838</v>
+        <v>251.045169</v>
       </c>
       <c r="I23">
-        <v>0.03182153341857176</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J23">
-        <v>0.02232237221704003</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.5505055</v>
+        <v>1.315976333333333</v>
       </c>
       <c r="N23">
-        <v>31.101011</v>
+        <v>3.947929</v>
       </c>
       <c r="O23">
-        <v>0.9128838417239634</v>
+        <v>0.05185809803458477</v>
       </c>
       <c r="P23">
-        <v>0.8749205071943416</v>
+        <v>0.0758163632437274</v>
       </c>
       <c r="Q23">
-        <v>198.7497512045545</v>
+        <v>110.1231670005557</v>
       </c>
       <c r="R23">
-        <v>794.9990048182181</v>
+        <v>991.108503005001</v>
       </c>
       <c r="S23">
-        <v>0.02904936367669328</v>
+        <v>0.009829548821619702</v>
       </c>
       <c r="T23">
-        <v>0.01953030122191354</v>
+        <v>0.01533094564935779</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>83.68172299999999</v>
+      </c>
+      <c r="H24">
+        <v>251.045169</v>
+      </c>
+      <c r="I24">
+        <v>0.1895470368979645</v>
+      </c>
+      <c r="J24">
+        <v>0.2022115674432087</v>
+      </c>
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>12.780919</v>
-      </c>
-      <c r="H24">
-        <v>25.561838</v>
-      </c>
-      <c r="I24">
-        <v>0.03182153341857176</v>
-      </c>
-      <c r="J24">
-        <v>0.02232237221704003</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1436843333333333</v>
+        <v>23.5157765</v>
       </c>
       <c r="N24">
-        <v>0.431053</v>
+        <v>47.031553</v>
       </c>
       <c r="O24">
-        <v>0.008434909476664915</v>
+        <v>0.9266758164316415</v>
       </c>
       <c r="P24">
-        <v>0.01212620095815028</v>
+        <v>0.9031979314128034</v>
       </c>
       <c r="Q24">
-        <v>1.836417825902333</v>
+        <v>1967.84069520291</v>
       </c>
       <c r="R24">
-        <v>11.018506955414</v>
+        <v>11807.04417121746</v>
       </c>
       <c r="S24">
-        <v>0.0002684117537943202</v>
+        <v>0.1756486551696198</v>
       </c>
       <c r="T24">
-        <v>0.0002706855713664581</v>
+        <v>0.1826370694224467</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.780919</v>
+        <v>83.68172299999999</v>
       </c>
       <c r="H25">
-        <v>25.561838</v>
+        <v>251.045169</v>
       </c>
       <c r="I25">
-        <v>0.03182153341857176</v>
+        <v>0.1895470368979645</v>
       </c>
       <c r="J25">
-        <v>0.02232237221704003</v>
+        <v>0.2022115674432087</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,772 +1987,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.01559133333333333</v>
+        <v>0.003305333333333333</v>
       </c>
       <c r="N25">
-        <v>0.046774</v>
+        <v>0.009915999999999999</v>
       </c>
       <c r="O25">
-        <v>0.0009152806171434249</v>
+        <v>0.0001302518105343188</v>
       </c>
       <c r="P25">
-        <v>0.001315826414887546</v>
+        <v>0.0001904277047345078</v>
       </c>
       <c r="Q25">
-        <v>0.1992715684353334</v>
+        <v>0.2765959884226666</v>
       </c>
       <c r="R25">
-        <v>1.195629410612</v>
+        <v>2.489363895804</v>
       </c>
       <c r="S25">
-        <v>2.912563274580048E-05</v>
+        <v>2.46888447373752E-05</v>
       </c>
       <c r="T25">
-        <v>2.937236700613315E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>41.810285</v>
-      </c>
-      <c r="H26">
-        <v>125.430855</v>
-      </c>
-      <c r="I26">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J26">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.5</v>
-      </c>
-      <c r="M26">
-        <v>0.0057055</v>
-      </c>
-      <c r="N26">
-        <v>0.011411</v>
-      </c>
-      <c r="O26">
-        <v>0.000334938228146736</v>
-      </c>
-      <c r="P26">
-        <v>0.000321009433024368</v>
-      </c>
-      <c r="Q26">
-        <v>0.2385485810675</v>
-      </c>
-      <c r="R26">
-        <v>1.431291486405</v>
-      </c>
-      <c r="S26">
-        <v>3.486638068219205E-05</v>
-      </c>
-      <c r="T26">
-        <v>3.516174699142144E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>41.810285</v>
-      </c>
-      <c r="H27">
-        <v>125.430855</v>
-      </c>
-      <c r="I27">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J27">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1.315976333333333</v>
-      </c>
-      <c r="N27">
-        <v>3.947929</v>
-      </c>
-      <c r="O27">
-        <v>0.07725366424848043</v>
-      </c>
-      <c r="P27">
-        <v>0.1110614713794111</v>
-      </c>
-      <c r="Q27">
-        <v>55.02134554992166</v>
-      </c>
-      <c r="R27">
-        <v>495.192109949295</v>
-      </c>
-      <c r="S27">
-        <v>0.008041947560556525</v>
-      </c>
-      <c r="T27">
-        <v>0.01216511091386342</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>41.810285</v>
-      </c>
-      <c r="H28">
-        <v>125.430855</v>
-      </c>
-      <c r="I28">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J28">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M28">
-        <v>0.003021333333333334</v>
-      </c>
-      <c r="N28">
-        <v>0.009064000000000001</v>
-      </c>
-      <c r="O28">
-        <v>0.000177365705601146</v>
-      </c>
-      <c r="P28">
-        <v>0.000254984620185161</v>
-      </c>
-      <c r="Q28">
-        <v>0.1263228077466667</v>
-      </c>
-      <c r="R28">
-        <v>1.13690526972</v>
-      </c>
-      <c r="S28">
-        <v>1.846340516480524E-05</v>
-      </c>
-      <c r="T28">
-        <v>2.792972348876032E-05</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>41.810285</v>
-      </c>
-      <c r="H29">
-        <v>125.430855</v>
-      </c>
-      <c r="I29">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J29">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>15.5505055</v>
-      </c>
-      <c r="N29">
-        <v>31.101011</v>
-      </c>
-      <c r="O29">
-        <v>0.9128838417239634</v>
-      </c>
-      <c r="P29">
-        <v>0.8749205071943416</v>
-      </c>
-      <c r="Q29">
-        <v>650.1710668490675</v>
-      </c>
-      <c r="R29">
-        <v>3901.026401094405</v>
-      </c>
-      <c r="S29">
-        <v>0.09502933039409715</v>
-      </c>
-      <c r="T29">
-        <v>0.09583435982467928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>41.810285</v>
-      </c>
-      <c r="H30">
-        <v>125.430855</v>
-      </c>
-      <c r="I30">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J30">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.1436843333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.431053</v>
-      </c>
-      <c r="O30">
-        <v>0.008434909476664915</v>
-      </c>
-      <c r="P30">
-        <v>0.01212620095815028</v>
-      </c>
-      <c r="Q30">
-        <v>6.007482926701667</v>
-      </c>
-      <c r="R30">
-        <v>54.067346340315</v>
-      </c>
-      <c r="S30">
-        <v>0.0008780567284316848</v>
-      </c>
-      <c r="T30">
-        <v>0.001328242619042432</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>41.810285</v>
-      </c>
-      <c r="H31">
-        <v>125.430855</v>
-      </c>
-      <c r="I31">
-        <v>0.1040979432987182</v>
-      </c>
-      <c r="J31">
-        <v>0.1095349337872956</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M31">
-        <v>0.01559133333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.046774</v>
-      </c>
-      <c r="O31">
-        <v>0.0009152806171434249</v>
-      </c>
-      <c r="P31">
-        <v>0.001315826414887546</v>
-      </c>
-      <c r="Q31">
-        <v>0.6518780901966666</v>
-      </c>
-      <c r="R31">
-        <v>5.866902811770001</v>
-      </c>
-      <c r="S31">
-        <v>9.527882978581201E-05</v>
-      </c>
-      <c r="T31">
-        <v>0.0001441289592302819</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H32">
-        <v>475.930603</v>
-      </c>
-      <c r="I32">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J32">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.0057055</v>
-      </c>
-      <c r="N32">
-        <v>0.011411</v>
-      </c>
-      <c r="O32">
-        <v>0.000334938228146736</v>
-      </c>
-      <c r="P32">
-        <v>0.000321009433024368</v>
-      </c>
-      <c r="Q32">
-        <v>0.9051406851388334</v>
-      </c>
-      <c r="R32">
-        <v>5.430844110833</v>
-      </c>
-      <c r="S32">
-        <v>0.0001322958181422204</v>
-      </c>
-      <c r="T32">
-        <v>0.0001334165460975343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H33">
-        <v>475.930603</v>
-      </c>
-      <c r="I33">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J33">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.315976333333333</v>
-      </c>
-      <c r="N33">
-        <v>3.947929</v>
-      </c>
-      <c r="O33">
-        <v>0.07725366424848043</v>
-      </c>
-      <c r="P33">
-        <v>0.1110614713794111</v>
-      </c>
-      <c r="Q33">
-        <v>208.7711366190208</v>
-      </c>
-      <c r="R33">
-        <v>1878.940229571187</v>
-      </c>
-      <c r="S33">
-        <v>0.03051409441313341</v>
-      </c>
-      <c r="T33">
-        <v>0.0461588862867665</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H34">
-        <v>475.930603</v>
-      </c>
-      <c r="I34">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J34">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.003021333333333334</v>
-      </c>
-      <c r="N34">
-        <v>0.009064000000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.000177365705601146</v>
-      </c>
-      <c r="P34">
-        <v>0.000254984620185161</v>
-      </c>
-      <c r="Q34">
-        <v>0.4793149983991112</v>
-      </c>
-      <c r="R34">
-        <v>4.313834985592001</v>
-      </c>
-      <c r="S34">
-        <v>7.005692142909391E-05</v>
-      </c>
-      <c r="T34">
-        <v>0.0001059756001952547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H35">
-        <v>475.930603</v>
-      </c>
-      <c r="I35">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J35">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>15.5505055</v>
-      </c>
-      <c r="N35">
-        <v>31.101011</v>
-      </c>
-      <c r="O35">
-        <v>0.9128838417239634</v>
-      </c>
-      <c r="P35">
-        <v>0.8749205071943416</v>
-      </c>
-      <c r="Q35">
-        <v>2466.987153189939</v>
-      </c>
-      <c r="R35">
-        <v>14801.92291913963</v>
-      </c>
-      <c r="S35">
-        <v>0.3605760840675836</v>
-      </c>
-      <c r="T35">
-        <v>0.3636306605697504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H36">
-        <v>475.930603</v>
-      </c>
-      <c r="I36">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J36">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.1436843333333333</v>
-      </c>
-      <c r="N36">
-        <v>0.431053</v>
-      </c>
-      <c r="O36">
-        <v>0.008434909476664915</v>
-      </c>
-      <c r="P36">
-        <v>0.01212620095815028</v>
-      </c>
-      <c r="Q36">
-        <v>22.79459046832878</v>
-      </c>
-      <c r="R36">
-        <v>205.151314214959</v>
-      </c>
-      <c r="S36">
-        <v>0.00333166881650212</v>
-      </c>
-      <c r="T36">
-        <v>0.005039838966346548</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>158.6435343333333</v>
-      </c>
-      <c r="H37">
-        <v>475.930603</v>
-      </c>
-      <c r="I37">
-        <v>0.3949857228129294</v>
-      </c>
-      <c r="J37">
-        <v>0.4156156560277984</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.01559133333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.046774</v>
-      </c>
-      <c r="O37">
-        <v>0.0009152806171434249</v>
-      </c>
-      <c r="P37">
-        <v>0.001315826414887546</v>
-      </c>
-      <c r="Q37">
-        <v>2.473464224969111</v>
-      </c>
-      <c r="R37">
-        <v>22.261178024722</v>
-      </c>
-      <c r="S37">
-        <v>0.0003615227761390598</v>
-      </c>
-      <c r="T37">
-        <v>0.0005468780586421935</v>
+        <v>3.850668465897737E-05</v>
       </c>
     </row>
   </sheetData>
